--- a/backend/result/100_result.xlsx
+++ b/backend/result/100_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,198 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DF</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>윤석열</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>61</v>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>이준석</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>26</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>후보</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>후보</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>26</v>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>이재명</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>간담회</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>26</v>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>공수처</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>주한미국상공회의소</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>24</v>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>도산서원</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>이재명</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>19</v>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>방문</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>암참</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15</v>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>퇴계</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>14</v>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>대표</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>13</v>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>안동</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>회장</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12</v>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>윤석열김건희</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/result/100_result.xlsx
+++ b/backend/result/100_result.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>후보</t>
+          <t>이재명</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 상승</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이재명</t>
+          <t>공수처</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1위 상승</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>공수처</t>
+          <t>아들</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>도산서원</t>
+          <t>발언</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>방문</t>
+          <t>의혹</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>퇴계</t>
+          <t>비판</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이황</t>
+          <t>이준석</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>안동</t>
+          <t>방문</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3위 하락</t>
         </is>
       </c>
     </row>
@@ -618,15 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>윤석열김건희</t>
+          <t>국민의힘</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>

--- a/backend/result/100_result.xlsx
+++ b/backend/result/100_result.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>윤석열</t>
+          <t>이재명</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이재명</t>
+          <t>후보</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>공수처</t>
+          <t>포토</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1위 상승</t>
+          <t>3위 상승</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아들</t>
+          <t>윤석열</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>발언</t>
+          <t>분노</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>의혹</t>
+          <t>지지율</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>4위 하락</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>비판</t>
+          <t>연설</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이준석</t>
+          <t>활동</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>5위 하락</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>방문</t>
+          <t>홍준표</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3위 하락</t>
+          <t>5위 하락</t>
         </is>
       </c>
     </row>
@@ -618,15 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>국민의힘</t>
+          <t>한국군</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/backend/result/100_result.xlsx
+++ b/backend/result/100_result.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이재명</t>
+          <t>윤석열</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>포토</t>
+          <t>민주당</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -510,11 +510,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>윤석열</t>
+          <t>천정배</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -528,11 +528,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>분노</t>
+          <t>대선후보</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>지지율</t>
+          <t>의원</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4위 하락</t>
+          <t>4위 상승</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>연설</t>
+          <t>참배</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>활동</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>홍준표</t>
+          <t>다부동</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5위 하락</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -618,11 +618,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한국군</t>
+          <t>지지자들</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/backend/result/100_result.xlsx
+++ b/backend/result/100_result.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -474,11 +474,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>후보</t>
+          <t>신년사</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -492,11 +492,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>민주당</t>
+          <t>대통령</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -510,11 +510,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>천정배</t>
+          <t>공수처</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -528,11 +528,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>대선후보</t>
+          <t>이재명</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>의원</t>
+          <t>국민의힘</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4위 상승</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>참배</t>
+          <t>전원회의</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -582,11 +582,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>점검</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -600,11 +600,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>다부동</t>
+          <t>동향</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -618,11 +618,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>지지자들</t>
+          <t>대선</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
